--- a/trackedvessels.xlsx
+++ b/trackedvessels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MFT\Documents\GitHub\VesselTimeline_dataGet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E869C2B-EE61-48E0-95DD-EB93359623BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6BF79A-0D74-47BB-AB5B-2022A44F1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC07ED0-C752-7C43-A5B0-616708F842E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC07ED0-C752-7C43-A5B0-616708F842E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="229">
   <si>
     <t>Santa Rosa</t>
   </si>
@@ -537,6 +537,192 @@
   </si>
   <si>
     <t>Maastricht Maersk</t>
+  </si>
+  <si>
+    <t>Maersk Inverness</t>
+  </si>
+  <si>
+    <t>Maersk Izmir</t>
+  </si>
+  <si>
+    <t>Maersk Innoshima</t>
+  </si>
+  <si>
+    <t>Rhine Maersk</t>
+  </si>
+  <si>
+    <t>Rhone Maersk</t>
+  </si>
+  <si>
+    <t>Cap Jackson</t>
+  </si>
+  <si>
+    <t>Cap Jervis</t>
+  </si>
+  <si>
+    <t>Maersk Danube</t>
+  </si>
+  <si>
+    <t>Maersk Ganges</t>
+  </si>
+  <si>
+    <t>Inverness</t>
+  </si>
+  <si>
+    <t>Conakry 2nd hand</t>
+  </si>
+  <si>
+    <t>Cap J</t>
+  </si>
+  <si>
+    <t>Danube</t>
+  </si>
+  <si>
+    <t>M701</t>
+  </si>
+  <si>
+    <t>Maersk Altair</t>
+  </si>
+  <si>
+    <t>Maersk Antares</t>
+  </si>
+  <si>
+    <t>Maersk Alfirk</t>
+  </si>
+  <si>
+    <t>Maersk Algol</t>
+  </si>
+  <si>
+    <t>Maersk Iowa</t>
+  </si>
+  <si>
+    <t>Maersk Ohio</t>
+  </si>
+  <si>
+    <t>Maersk Utah</t>
+  </si>
+  <si>
+    <t>Maersk Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maersk Kansas </t>
+  </si>
+  <si>
+    <t>Maersk Tennessee</t>
+  </si>
+  <si>
+    <t>Maersk Makutu</t>
+  </si>
+  <si>
+    <t>Maersk Chicago</t>
+  </si>
+  <si>
+    <t>Maersk Columbus</t>
+  </si>
+  <si>
+    <t>Maersk Denver</t>
+  </si>
+  <si>
+    <t>Maersk Hartford</t>
+  </si>
+  <si>
+    <t>Maersk Kensington</t>
+  </si>
+  <si>
+    <t>Maersk Kinloss</t>
+  </si>
+  <si>
+    <t>Maersk Detroit</t>
+  </si>
+  <si>
+    <t>Maersk Pittsburg</t>
+  </si>
+  <si>
+    <t>Maersk Atlanta</t>
+  </si>
+  <si>
+    <t>Maersk Memphis</t>
+  </si>
+  <si>
+    <t>Lars Mærsk</t>
+  </si>
+  <si>
+    <t>Safmarine Nomazwe</t>
+  </si>
+  <si>
+    <t>Safmarine Nokwanda</t>
+  </si>
+  <si>
+    <t>Maersk Seletar</t>
+  </si>
+  <si>
+    <t>Maersk Sentosa</t>
+  </si>
+  <si>
+    <t>Maersk Serangoon</t>
+  </si>
+  <si>
+    <t>Maersk Sembawang</t>
+  </si>
+  <si>
+    <t>Maersk Sebarok</t>
+  </si>
+  <si>
+    <t>Maersk Senang</t>
+  </si>
+  <si>
+    <t>Maersk Semakau</t>
+  </si>
+  <si>
+    <t>Maersk Stepnica</t>
+  </si>
+  <si>
+    <t>Maersk Salalah</t>
+  </si>
+  <si>
+    <t>Maersk Savannah</t>
+  </si>
+  <si>
+    <t>Maersk Salina</t>
+  </si>
+  <si>
+    <t>Maersk Stockholm</t>
+  </si>
+  <si>
+    <t>Maersk Tanjong</t>
+  </si>
+  <si>
+    <t>Maersk Taikung</t>
+  </si>
+  <si>
+    <t>Maersk Taurus</t>
+  </si>
+  <si>
+    <t>Maersk Tukang</t>
+  </si>
+  <si>
+    <t>Altair</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kowloon</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Seletar</t>
+  </si>
+  <si>
+    <t>Stepnica</t>
+  </si>
+  <si>
+    <t>Tanjong</t>
+  </si>
+  <si>
+    <t>M706</t>
   </si>
 </sst>
 </file>
@@ -894,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A49309-98C8-6143-85DD-C6C0E46E1D27}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2908,6 +3094,692 @@
         <v>79</v>
       </c>
     </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144">
+        <v>9348156</v>
+      </c>
+      <c r="C144" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145">
+        <v>9348168</v>
+      </c>
+      <c r="C145" t="s">
+        <v>176</v>
+      </c>
+      <c r="D145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146">
+        <v>9348170</v>
+      </c>
+      <c r="C146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147">
+        <v>9456991</v>
+      </c>
+      <c r="C147" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148">
+        <v>9457000</v>
+      </c>
+      <c r="C148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149">
+        <v>9484560</v>
+      </c>
+      <c r="C149" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150">
+        <v>9484572</v>
+      </c>
+      <c r="C150" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151">
+        <v>9694579</v>
+      </c>
+      <c r="C151" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152">
+        <v>9694581</v>
+      </c>
+      <c r="C152" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153">
+        <v>9342499</v>
+      </c>
+      <c r="C153" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>182</v>
+      </c>
+      <c r="B154">
+        <v>9342504</v>
+      </c>
+      <c r="C154" t="s">
+        <v>221</v>
+      </c>
+      <c r="D154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155">
+        <v>9342516</v>
+      </c>
+      <c r="C155" t="s">
+        <v>221</v>
+      </c>
+      <c r="D155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156">
+        <v>9342528</v>
+      </c>
+      <c r="C156" t="s">
+        <v>221</v>
+      </c>
+      <c r="D156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157">
+        <v>9298686</v>
+      </c>
+      <c r="C157" t="s">
+        <v>222</v>
+      </c>
+      <c r="D157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158">
+        <v>9298698</v>
+      </c>
+      <c r="C158" t="s">
+        <v>222</v>
+      </c>
+      <c r="D158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>187</v>
+      </c>
+      <c r="B159">
+        <v>9305300</v>
+      </c>
+      <c r="C159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160">
+        <v>9305312</v>
+      </c>
+      <c r="C160" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>189</v>
+      </c>
+      <c r="B161">
+        <v>9311701</v>
+      </c>
+      <c r="C161" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162">
+        <v>9314210</v>
+      </c>
+      <c r="C162" t="s">
+        <v>222</v>
+      </c>
+      <c r="D162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163">
+        <v>9318319</v>
+      </c>
+      <c r="C163" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>192</v>
+      </c>
+      <c r="B164">
+        <v>9332975</v>
+      </c>
+      <c r="C164" t="s">
+        <v>223</v>
+      </c>
+      <c r="D164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165">
+        <v>9332987</v>
+      </c>
+      <c r="C165" t="s">
+        <v>223</v>
+      </c>
+      <c r="D165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166">
+        <v>9332999</v>
+      </c>
+      <c r="C166" t="s">
+        <v>223</v>
+      </c>
+      <c r="D166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167">
+        <v>9333008</v>
+      </c>
+      <c r="C167" t="s">
+        <v>223</v>
+      </c>
+      <c r="D167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>196</v>
+      </c>
+      <c r="B168">
+        <v>9333010</v>
+      </c>
+      <c r="C168" t="s">
+        <v>223</v>
+      </c>
+      <c r="D168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>197</v>
+      </c>
+      <c r="B169">
+        <v>9333022</v>
+      </c>
+      <c r="C169" t="s">
+        <v>223</v>
+      </c>
+      <c r="D169" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>198</v>
+      </c>
+      <c r="B170">
+        <v>9333034</v>
+      </c>
+      <c r="C170" t="s">
+        <v>223</v>
+      </c>
+      <c r="D170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171">
+        <v>9342176</v>
+      </c>
+      <c r="C171" t="s">
+        <v>223</v>
+      </c>
+      <c r="D171" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172">
+        <v>9348649</v>
+      </c>
+      <c r="C172" t="s">
+        <v>223</v>
+      </c>
+      <c r="D172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173">
+        <v>9348651</v>
+      </c>
+      <c r="C173" t="s">
+        <v>223</v>
+      </c>
+      <c r="D173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174">
+        <v>9294379</v>
+      </c>
+      <c r="C174" t="s">
+        <v>224</v>
+      </c>
+      <c r="D174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175">
+        <v>9294381</v>
+      </c>
+      <c r="C175" t="s">
+        <v>224</v>
+      </c>
+      <c r="D175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>204</v>
+      </c>
+      <c r="B176">
+        <v>9294393</v>
+      </c>
+      <c r="C176" t="s">
+        <v>224</v>
+      </c>
+      <c r="D176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177">
+        <v>9315197</v>
+      </c>
+      <c r="C177" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178">
+        <v>9315202</v>
+      </c>
+      <c r="C178" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>207</v>
+      </c>
+      <c r="B179">
+        <v>9315214</v>
+      </c>
+      <c r="C179" t="s">
+        <v>225</v>
+      </c>
+      <c r="D179" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180">
+        <v>9315226</v>
+      </c>
+      <c r="C180" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>209</v>
+      </c>
+      <c r="B181">
+        <v>9315238</v>
+      </c>
+      <c r="C181" t="s">
+        <v>225</v>
+      </c>
+      <c r="D181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182">
+        <v>9315240</v>
+      </c>
+      <c r="C182" t="s">
+        <v>225</v>
+      </c>
+      <c r="D182" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>211</v>
+      </c>
+      <c r="B183">
+        <v>9315252</v>
+      </c>
+      <c r="C183" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>212</v>
+      </c>
+      <c r="B184">
+        <v>9352004</v>
+      </c>
+      <c r="C184" t="s">
+        <v>226</v>
+      </c>
+      <c r="D184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>213</v>
+      </c>
+      <c r="B185">
+        <v>9352016</v>
+      </c>
+      <c r="C185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>214</v>
+      </c>
+      <c r="B186">
+        <v>9352028</v>
+      </c>
+      <c r="C186" t="s">
+        <v>226</v>
+      </c>
+      <c r="D186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187">
+        <v>9352030</v>
+      </c>
+      <c r="C187" t="s">
+        <v>226</v>
+      </c>
+      <c r="D187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>216</v>
+      </c>
+      <c r="B188">
+        <v>9352042</v>
+      </c>
+      <c r="C188" t="s">
+        <v>226</v>
+      </c>
+      <c r="D188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>217</v>
+      </c>
+      <c r="B189">
+        <v>9332511</v>
+      </c>
+      <c r="C189" t="s">
+        <v>227</v>
+      </c>
+      <c r="D189" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>218</v>
+      </c>
+      <c r="B190">
+        <v>9334662</v>
+      </c>
+      <c r="C190" t="s">
+        <v>227</v>
+      </c>
+      <c r="D190" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>219</v>
+      </c>
+      <c r="B191">
+        <v>9334674</v>
+      </c>
+      <c r="C191" t="s">
+        <v>227</v>
+      </c>
+      <c r="D191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192">
+        <v>9334686</v>
+      </c>
+      <c r="C192" t="s">
+        <v>227</v>
+      </c>
+      <c r="D192" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trackedvessels.xlsx
+++ b/trackedvessels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MFT\Documents\GitHub\VesselTimeline_dataGet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6BF79A-0D74-47BB-AB5B-2022A44F1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC02DF14-6FC7-429E-B5F4-C11C943DBAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC07ED0-C752-7C43-A5B0-616708F842E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC07ED0-C752-7C43-A5B0-616708F842E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="213">
   <si>
     <t>Santa Rosa</t>
   </si>
   <si>
-    <t>Saigon</t>
-  </si>
-  <si>
     <t>IMO</t>
   </si>
   <si>
@@ -59,45 +56,18 @@
     <t>Santa Ursula</t>
   </si>
   <si>
-    <t>Santa Rita</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
     <t>PROJECT</t>
   </si>
   <si>
-    <t>Maersk Essen</t>
-  </si>
-  <si>
     <t>Maersk Edmonton</t>
   </si>
   <si>
-    <t>Maersk Elba</t>
-  </si>
-  <si>
-    <t>Maersk Essex</t>
-  </si>
-  <si>
-    <t>Maersk Sana</t>
-  </si>
-  <si>
-    <t>Maersk Santana</t>
-  </si>
-  <si>
-    <t>Maersk Seville</t>
-  </si>
-  <si>
-    <t>Maersk Sheerness</t>
-  </si>
-  <si>
     <t>Maersk Sofia</t>
   </si>
   <si>
-    <t>Maersk Singapore</t>
-  </si>
-  <si>
     <t>Stralsund</t>
   </si>
   <si>
@@ -119,9 +89,6 @@
     <t>Santa Clara</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Isabel </t>
-  </si>
-  <si>
     <t>Santa Catarina</t>
   </si>
   <si>
@@ -173,24 +140,15 @@
     <t>MAERSK BUTON</t>
   </si>
   <si>
-    <t>MAERSK BALI</t>
-  </si>
-  <si>
     <t>MAERSK BOGOR</t>
   </si>
   <si>
     <t>MAERSK BRATAN</t>
   </si>
   <si>
-    <t>Maersk Hong Kong</t>
-  </si>
-  <si>
     <t>Maersk Horsburgh</t>
   </si>
   <si>
-    <t>Maersk Halifax ex Honam</t>
-  </si>
-  <si>
     <t>Maersk Hidalgo</t>
   </si>
   <si>
@@ -204,12 +162,6 @@
   </si>
   <si>
     <t>Maersk Herrera</t>
-  </si>
-  <si>
-    <t>Maersk Havana</t>
-  </si>
-  <si>
-    <t>Maersk Huacho</t>
   </si>
   <si>
     <t>Maersk Houston</t>
@@ -1080,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A49309-98C8-6143-85DD-C6C0E46E1D27}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,366 +1046,366 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>9456783</v>
+        <v>9458030</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>9458030</v>
+        <v>9308637</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>9458078</v>
+        <v>9303522</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>9458092</v>
+        <v>9306550</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>9289922</v>
+        <v>9699189</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>9289934</v>
+        <v>9699191</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>9299927</v>
+        <v>9699206</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>9299939</v>
+        <v>9430387</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>9308637</v>
+        <v>9430399</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>9308649</v>
+        <v>9444845</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>9303522</v>
+        <v>9444716</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>9303534</v>
+        <v>9444730</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>9306550</v>
+        <v>9444742</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>9699189</v>
+        <v>9430363</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>9699191</v>
+        <v>9430375</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>9699206</v>
+        <v>9348053</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>9430387</v>
+        <v>9348065</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>9430399</v>
+        <v>9348077</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>9444845</v>
+        <v>9283186</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>9444716</v>
+        <v>9283198</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>9444728</v>
+        <v>9283203</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>9444730</v>
+        <v>9283215</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>9444742</v>
+        <v>9283239</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>9425382</v>
+        <v>9357949</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>9430363</v>
+        <v>9355288</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,13 +1413,13 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>9430375</v>
+        <v>9355331</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,13 +1427,13 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>9348053</v>
+        <v>9355343</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,13 +1441,13 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>9348065</v>
+        <v>9355355</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,13 +1455,13 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>9348077</v>
+        <v>9392925</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,13 +1469,13 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>9283186</v>
+        <v>9394882</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +1483,13 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>9283198</v>
+        <v>9394894</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,13 +1497,13 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>9283203</v>
+        <v>9784269</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,13 +1511,13 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>9283215</v>
+        <v>9784283</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,13 +1525,13 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>9283239</v>
+        <v>9784295</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,13 +1539,13 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>9357949</v>
+        <v>9784300</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,13 +1553,13 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>9355288</v>
+        <v>9784312</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +1567,13 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>9355331</v>
+        <v>9784324</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,13 +1581,13 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>9355343</v>
+        <v>9848950</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,13 +1595,13 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>9355355</v>
+        <v>9357951</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +1609,13 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>9392925</v>
+        <v>9348091</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,13 +1623,13 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>9394870</v>
+        <v>9357975</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,13 +1637,13 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>9394882</v>
+        <v>9357963</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,13 +1651,13 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>9394894</v>
+        <v>9348089</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,13 +1665,13 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>9784257</v>
+        <v>9348106</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,13 +1679,13 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>9784269</v>
+        <v>9717228</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,13 +1693,13 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>9784271</v>
+        <v>9717204</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,237 +1707,237 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>9784283</v>
+        <v>9717216</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B49">
-        <v>9784295</v>
+        <v>9525285</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B50">
-        <v>9784300</v>
+        <v>9525297</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B51">
-        <v>9784312</v>
+        <v>9525302</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B52">
-        <v>9784324</v>
+        <v>9525314</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B53">
-        <v>9784336</v>
+        <v>9525326</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>9848948</v>
+        <v>9525338</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B55">
-        <v>9848950</v>
+        <v>9525340</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B56">
-        <v>9357951</v>
+        <v>9525352</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B57">
-        <v>9348091</v>
+        <v>9525364</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B58">
-        <v>9357975</v>
+        <v>9525376</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B59">
-        <v>9357963</v>
+        <v>9525388</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B60">
-        <v>9348089</v>
+        <v>9525390</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B61">
-        <v>9348106</v>
+        <v>9525405</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B62">
-        <v>9717228</v>
+        <v>9525455</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>9717204</v>
+        <v>9525467</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B64">
-        <v>9717216</v>
+        <v>9525479</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1945,13 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <v>9525285</v>
+        <v>9525481</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,13 +1959,13 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <v>9525297</v>
+        <v>9525493</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +1973,13 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>9525302</v>
+        <v>9561485</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +1987,13 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>9525314</v>
+        <v>9561497</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,13 +2001,13 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>9525326</v>
+        <v>9526459</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,13 +2015,13 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>9525338</v>
+        <v>9529255</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2077,13 +2029,13 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>9525340</v>
+        <v>9321483</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,13 +2043,13 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>9525352</v>
+        <v>9321495</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,13 +2057,13 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>9525364</v>
+        <v>9321500</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,13 +2071,13 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>9525376</v>
+        <v>9321512</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,13 +2085,13 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>9525388</v>
+        <v>9321524</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,13 +2099,13 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>9525390</v>
+        <v>9321536</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,13 +2113,13 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <v>9525405</v>
+        <v>9321548</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,13 +2127,13 @@
         <v>93</v>
       </c>
       <c r="B78">
-        <v>9525455</v>
+        <v>9321550</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,13 +2141,13 @@
         <v>94</v>
       </c>
       <c r="B79">
-        <v>9525467</v>
+        <v>9359002</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2203,13 +2155,13 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <v>9525479</v>
+        <v>9359014</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,13 +2169,13 @@
         <v>96</v>
       </c>
       <c r="B81">
-        <v>9525481</v>
+        <v>9359026</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,13 +2183,13 @@
         <v>97</v>
       </c>
       <c r="B82">
-        <v>9525493</v>
+        <v>9359038</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,13 +2197,13 @@
         <v>98</v>
       </c>
       <c r="B83">
-        <v>9561485</v>
+        <v>9359040</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,13 +2211,13 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <v>9561497</v>
+        <v>9359052</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,13 +2225,13 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>9526459</v>
+        <v>9302877</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2239,13 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>9529255</v>
+        <v>9302889</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,13 +2253,13 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>9321483</v>
+        <v>9302891</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,13 +2267,13 @@
         <v>103</v>
       </c>
       <c r="B88">
-        <v>9321495</v>
+        <v>9320233</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,13 +2281,13 @@
         <v>104</v>
       </c>
       <c r="B89">
-        <v>9321500</v>
+        <v>9320245</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,13 +2295,13 @@
         <v>105</v>
       </c>
       <c r="B90">
-        <v>9321512</v>
+        <v>9320257</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2309,13 @@
         <v>106</v>
       </c>
       <c r="B91">
-        <v>9321524</v>
+        <v>9526875</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,13 +2323,13 @@
         <v>107</v>
       </c>
       <c r="B92">
-        <v>9321536</v>
+        <v>9526887</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,13 +2337,13 @@
         <v>108</v>
       </c>
       <c r="B93">
-        <v>9321548</v>
+        <v>9526899</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,13 +2351,13 @@
         <v>109</v>
       </c>
       <c r="B94">
-        <v>9321550</v>
+        <v>9526904</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,13 +2365,13 @@
         <v>110</v>
       </c>
       <c r="B95">
-        <v>9359002</v>
+        <v>9526916</v>
       </c>
       <c r="C95" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,13 +2379,13 @@
         <v>111</v>
       </c>
       <c r="B96">
-        <v>9359014</v>
+        <v>9526928</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,13 +2393,13 @@
         <v>112</v>
       </c>
       <c r="B97">
-        <v>9359026</v>
+        <v>9526930</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,13 +2407,13 @@
         <v>113</v>
       </c>
       <c r="B98">
-        <v>9359038</v>
+        <v>9526942</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,13 +2421,13 @@
         <v>114</v>
       </c>
       <c r="B99">
-        <v>9359040</v>
+        <v>9526954</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,13 +2435,13 @@
         <v>115</v>
       </c>
       <c r="B100">
-        <v>9359052</v>
+        <v>9526966</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2449,13 @@
         <v>116</v>
       </c>
       <c r="B101">
-        <v>9302877</v>
+        <v>9526978</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2463,13 @@
         <v>117</v>
       </c>
       <c r="B102">
-        <v>9302889</v>
+        <v>9527025</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,13 +2477,13 @@
         <v>118</v>
       </c>
       <c r="B103">
-        <v>9302891</v>
+        <v>9527037</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2491,13 @@
         <v>119</v>
       </c>
       <c r="B104">
-        <v>9320233</v>
+        <v>9527049</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2505,13 @@
         <v>120</v>
       </c>
       <c r="B105">
-        <v>9320245</v>
+        <v>9527051</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2519,13 @@
         <v>121</v>
       </c>
       <c r="B106">
-        <v>9320257</v>
+        <v>9527063</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2533,13 @@
         <v>122</v>
       </c>
       <c r="B107">
-        <v>9526875</v>
+        <v>9632064</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2547,13 @@
         <v>123</v>
       </c>
       <c r="B108">
-        <v>9526887</v>
+        <v>9632090</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2561,13 @@
         <v>124</v>
       </c>
       <c r="B109">
-        <v>9526899</v>
+        <v>9632105</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2575,13 @@
         <v>125</v>
       </c>
       <c r="B110">
-        <v>9526904</v>
+        <v>9632117</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2589,13 @@
         <v>126</v>
       </c>
       <c r="B111">
-        <v>9526916</v>
+        <v>9632129</v>
       </c>
       <c r="C111" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2603,13 @@
         <v>127</v>
       </c>
       <c r="B112">
-        <v>9526928</v>
+        <v>9632131</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D112" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2617,13 @@
         <v>128</v>
       </c>
       <c r="B113">
-        <v>9526930</v>
+        <v>9632143</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2631,13 @@
         <v>129</v>
       </c>
       <c r="B114">
-        <v>9526942</v>
+        <v>9632155</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2645,13 @@
         <v>130</v>
       </c>
       <c r="B115">
-        <v>9526954</v>
+        <v>9632167</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,13 +2659,13 @@
         <v>131</v>
       </c>
       <c r="B116">
-        <v>9526966</v>
+        <v>9632179</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D116" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,13 +2673,13 @@
         <v>132</v>
       </c>
       <c r="B117">
-        <v>9526978</v>
+        <v>9619907</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,13 +2687,13 @@
         <v>133</v>
       </c>
       <c r="B118">
-        <v>9527025</v>
+        <v>9619919</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,13 +2701,13 @@
         <v>134</v>
       </c>
       <c r="B119">
-        <v>9527037</v>
+        <v>9619921</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,13 +2715,13 @@
         <v>135</v>
       </c>
       <c r="B120">
-        <v>9527049</v>
+        <v>9619933</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,13 +2729,13 @@
         <v>136</v>
       </c>
       <c r="B121">
-        <v>9527051</v>
+        <v>9619945</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D121" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,13 +2743,13 @@
         <v>137</v>
       </c>
       <c r="B122">
-        <v>9527063</v>
+        <v>9619957</v>
       </c>
       <c r="C122" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,13 +2757,13 @@
         <v>138</v>
       </c>
       <c r="B123">
-        <v>9632064</v>
+        <v>9619969</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +2771,13 @@
         <v>139</v>
       </c>
       <c r="B124">
-        <v>9632090</v>
+        <v>9619971</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,13 +2785,13 @@
         <v>140</v>
       </c>
       <c r="B125">
-        <v>9632105</v>
+        <v>9619983</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,377 +2799,377 @@
         <v>141</v>
       </c>
       <c r="B126">
-        <v>9632117</v>
+        <v>9619995</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B127">
-        <v>9632129</v>
+        <v>9780483</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B128">
-        <v>9632131</v>
+        <v>9348156</v>
       </c>
       <c r="C128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B129">
-        <v>9632143</v>
+        <v>9348168</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B130">
-        <v>9632155</v>
+        <v>9348170</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B131">
-        <v>9632167</v>
+        <v>9456991</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B132">
-        <v>9632179</v>
+        <v>9457000</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B133">
-        <v>9619907</v>
+        <v>9484560</v>
       </c>
       <c r="C133" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" t="s">
         <v>164</v>
-      </c>
-      <c r="D133" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B134">
-        <v>9619919</v>
+        <v>9484572</v>
       </c>
       <c r="C134" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" t="s">
         <v>164</v>
-      </c>
-      <c r="D134" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B135">
-        <v>9619921</v>
+        <v>9694579</v>
       </c>
       <c r="C135" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" t="s">
         <v>164</v>
-      </c>
-      <c r="D135" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B136">
-        <v>9619933</v>
+        <v>9694581</v>
       </c>
       <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" t="s">
         <v>164</v>
-      </c>
-      <c r="D136" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B137">
-        <v>9619945</v>
+        <v>9342499</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D137" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B138">
-        <v>9619957</v>
+        <v>9342504</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B139">
-        <v>9619969</v>
+        <v>9342516</v>
       </c>
       <c r="C139" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B140">
-        <v>9619971</v>
+        <v>9342528</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B141">
-        <v>9619983</v>
+        <v>9298686</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B142">
-        <v>9619995</v>
+        <v>9298698</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B143">
-        <v>9780483</v>
+        <v>9305300</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D143" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B144">
-        <v>9348156</v>
+        <v>9305312</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B145">
-        <v>9348168</v>
+        <v>9311701</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B146">
-        <v>9348170</v>
+        <v>9314210</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B147">
-        <v>9456991</v>
+        <v>9318319</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B148">
-        <v>9457000</v>
+        <v>9332975</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D148" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B149">
-        <v>9484560</v>
+        <v>9332987</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D149" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B150">
-        <v>9484572</v>
+        <v>9332999</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D150" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B151">
-        <v>9694579</v>
+        <v>9333008</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D151" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B152">
-        <v>9694581</v>
+        <v>9333010</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D152" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3225,13 +3177,13 @@
         <v>181</v>
       </c>
       <c r="B153">
-        <v>9342499</v>
+        <v>9333022</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D153" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,13 +3191,13 @@
         <v>182</v>
       </c>
       <c r="B154">
-        <v>9342504</v>
+        <v>9333034</v>
       </c>
       <c r="C154" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D154" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3253,13 +3205,13 @@
         <v>183</v>
       </c>
       <c r="B155">
-        <v>9342516</v>
+        <v>9342176</v>
       </c>
       <c r="C155" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D155" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3267,13 +3219,13 @@
         <v>184</v>
       </c>
       <c r="B156">
-        <v>9342528</v>
+        <v>9348649</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D156" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,13 +3233,13 @@
         <v>185</v>
       </c>
       <c r="B157">
-        <v>9298686</v>
+        <v>9348651</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D157" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3295,13 +3247,13 @@
         <v>186</v>
       </c>
       <c r="B158">
-        <v>9298698</v>
+        <v>9294379</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D158" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3309,13 +3261,13 @@
         <v>187</v>
       </c>
       <c r="B159">
-        <v>9305300</v>
+        <v>9294381</v>
       </c>
       <c r="C159" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3323,13 +3275,13 @@
         <v>188</v>
       </c>
       <c r="B160">
-        <v>9305312</v>
+        <v>9294393</v>
       </c>
       <c r="C160" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D160" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3337,13 +3289,13 @@
         <v>189</v>
       </c>
       <c r="B161">
-        <v>9311701</v>
+        <v>9315197</v>
       </c>
       <c r="C161" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D161" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3351,13 +3303,13 @@
         <v>190</v>
       </c>
       <c r="B162">
-        <v>9314210</v>
+        <v>9315202</v>
       </c>
       <c r="C162" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D162" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3365,13 +3317,13 @@
         <v>191</v>
       </c>
       <c r="B163">
-        <v>9318319</v>
+        <v>9315214</v>
       </c>
       <c r="C163" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D163" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,13 +3331,13 @@
         <v>192</v>
       </c>
       <c r="B164">
-        <v>9332975</v>
+        <v>9315226</v>
       </c>
       <c r="C164" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D164" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3393,13 +3345,13 @@
         <v>193</v>
       </c>
       <c r="B165">
-        <v>9332987</v>
+        <v>9315238</v>
       </c>
       <c r="C165" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D165" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3407,13 +3359,13 @@
         <v>194</v>
       </c>
       <c r="B166">
-        <v>9332999</v>
+        <v>9315240</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D166" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,13 +3373,13 @@
         <v>195</v>
       </c>
       <c r="B167">
-        <v>9333008</v>
+        <v>9315252</v>
       </c>
       <c r="C167" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D167" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,13 +3387,13 @@
         <v>196</v>
       </c>
       <c r="B168">
-        <v>9333010</v>
+        <v>9352004</v>
       </c>
       <c r="C168" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D168" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3449,13 +3401,13 @@
         <v>197</v>
       </c>
       <c r="B169">
-        <v>9333022</v>
+        <v>9352016</v>
       </c>
       <c r="C169" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D169" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,13 +3415,13 @@
         <v>198</v>
       </c>
       <c r="B170">
-        <v>9333034</v>
+        <v>9352028</v>
       </c>
       <c r="C170" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D170" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3477,13 +3429,13 @@
         <v>199</v>
       </c>
       <c r="B171">
-        <v>9342176</v>
+        <v>9352030</v>
       </c>
       <c r="C171" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D171" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3491,13 +3443,13 @@
         <v>200</v>
       </c>
       <c r="B172">
-        <v>9348649</v>
+        <v>9352042</v>
       </c>
       <c r="C172" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D172" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3505,13 +3457,13 @@
         <v>201</v>
       </c>
       <c r="B173">
-        <v>9348651</v>
+        <v>9332511</v>
       </c>
       <c r="C173" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D173" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3519,13 +3471,13 @@
         <v>202</v>
       </c>
       <c r="B174">
-        <v>9294379</v>
+        <v>9334662</v>
       </c>
       <c r="C174" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D174" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3533,13 +3485,13 @@
         <v>203</v>
       </c>
       <c r="B175">
-        <v>9294381</v>
+        <v>9334674</v>
       </c>
       <c r="C175" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D175" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3547,237 +3499,13 @@
         <v>204</v>
       </c>
       <c r="B176">
-        <v>9294393</v>
+        <v>9334686</v>
       </c>
       <c r="C176" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>205</v>
-      </c>
-      <c r="B177">
-        <v>9315197</v>
-      </c>
-      <c r="C177" t="s">
-        <v>225</v>
-      </c>
-      <c r="D177" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>206</v>
-      </c>
-      <c r="B178">
-        <v>9315202</v>
-      </c>
-      <c r="C178" t="s">
-        <v>225</v>
-      </c>
-      <c r="D178" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>207</v>
-      </c>
-      <c r="B179">
-        <v>9315214</v>
-      </c>
-      <c r="C179" t="s">
-        <v>225</v>
-      </c>
-      <c r="D179" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>208</v>
-      </c>
-      <c r="B180">
-        <v>9315226</v>
-      </c>
-      <c r="C180" t="s">
-        <v>225</v>
-      </c>
-      <c r="D180" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>209</v>
-      </c>
-      <c r="B181">
-        <v>9315238</v>
-      </c>
-      <c r="C181" t="s">
-        <v>225</v>
-      </c>
-      <c r="D181" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>210</v>
-      </c>
-      <c r="B182">
-        <v>9315240</v>
-      </c>
-      <c r="C182" t="s">
-        <v>225</v>
-      </c>
-      <c r="D182" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>211</v>
-      </c>
-      <c r="B183">
-        <v>9315252</v>
-      </c>
-      <c r="C183" t="s">
-        <v>225</v>
-      </c>
-      <c r="D183" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>212</v>
-      </c>
-      <c r="B184">
-        <v>9352004</v>
-      </c>
-      <c r="C184" t="s">
-        <v>226</v>
-      </c>
-      <c r="D184" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>213</v>
-      </c>
-      <c r="B185">
-        <v>9352016</v>
-      </c>
-      <c r="C185" t="s">
-        <v>226</v>
-      </c>
-      <c r="D185" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>214</v>
-      </c>
-      <c r="B186">
-        <v>9352028</v>
-      </c>
-      <c r="C186" t="s">
-        <v>226</v>
-      </c>
-      <c r="D186" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>215</v>
-      </c>
-      <c r="B187">
-        <v>9352030</v>
-      </c>
-      <c r="C187" t="s">
-        <v>226</v>
-      </c>
-      <c r="D187" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>216</v>
-      </c>
-      <c r="B188">
-        <v>9352042</v>
-      </c>
-      <c r="C188" t="s">
-        <v>226</v>
-      </c>
-      <c r="D188" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>217</v>
-      </c>
-      <c r="B189">
-        <v>9332511</v>
-      </c>
-      <c r="C189" t="s">
-        <v>227</v>
-      </c>
-      <c r="D189" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>218</v>
-      </c>
-      <c r="B190">
-        <v>9334662</v>
-      </c>
-      <c r="C190" t="s">
-        <v>227</v>
-      </c>
-      <c r="D190" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>219</v>
-      </c>
-      <c r="B191">
-        <v>9334674</v>
-      </c>
-      <c r="C191" t="s">
-        <v>227</v>
-      </c>
-      <c r="D191" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>220</v>
-      </c>
-      <c r="B192">
-        <v>9334686</v>
-      </c>
-      <c r="C192" t="s">
-        <v>227</v>
-      </c>
-      <c r="D192" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
